--- a/Luban/Config/Datas/__tables__.xlsx
+++ b/Luban/Config/Datas/__tables__.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\github\luban_examples\DesignerConfigs\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\GameFramework_Devil\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1224FE-A649-4EF8-ACBA-A2EC8A41FB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E775B1-2150-4BDE-88B8-B5EED36BAEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1500" windowWidth="21600" windowHeight="12045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="11085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -130,34 +140,63 @@
     <t>test/define_from_excel.xlsx</t>
   </si>
   <si>
+    <t>test.TbTestDesc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id,name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test.TbTestExcelBean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestExcelBean1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test/test_excel_bean.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestDesc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>test/test_desc.xlsx</t>
-  </si>
-  <si>
-    <t>test.TbTestDesc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id,name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test.TbTestExcelBean</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestExcelBean1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test/test_excel_bean.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestDesc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server/StartScene.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client/Start.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbStartScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbStart</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -183,6 +222,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -512,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -631,6 +671,9 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B4" t="s">
         <v>30</v>
       </c>
@@ -645,6 +688,9 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B5" t="s">
         <v>33</v>
       </c>
@@ -659,38 +705,75 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>36</v>
+      <c r="E7" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Luban/Config/Datas/__tables__.xlsx
+++ b/Luban/Config/Datas/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\GameFramework_Devil\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E775B1-2150-4BDE-88B8-B5EED36BAEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3944EDCD-CCC7-4E0B-8C2B-F48AD3472632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="11085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2625" yWindow="2430" windowWidth="28800" windowHeight="11085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>##var</t>
   </si>
@@ -89,9 +89,6 @@
     <t>模式</t>
   </si>
   <si>
-    <t>分组</t>
-  </si>
-  <si>
     <t>注释</t>
   </si>
   <si>
@@ -113,90 +110,89 @@
     <t>取值one|map|list，为空自动为map</t>
   </si>
   <si>
+    <t>用于本地化。可以多个，以逗号分隔</t>
+  </si>
+  <si>
+    <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
+  </si>
+  <si>
+    <t>StartScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server/StartScene.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client/Start.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbStartScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbStart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server/StartMachine.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartMachine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbStartMachine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server/StartProcess.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartProcess</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbStartProcess</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbStartZone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartZone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server/StartZone.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>取值c|s|e，可以有多个，以逗号','分隔。空则表示属于所有分组</t>
-  </si>
-  <si>
-    <t>用于本地化。可以多个，以逗号分隔</t>
-  </si>
-  <si>
-    <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
-  </si>
-  <si>
-    <t>test.TbDemoGroupDefineFromExcel</t>
-  </si>
-  <si>
-    <t>DemoGroup</t>
-  </si>
-  <si>
-    <t>test/demo_group.xlsx</t>
-  </si>
-  <si>
-    <t>test.TbDefineFromExcel2</t>
-  </si>
-  <si>
-    <t>DefineFromExcel2</t>
-  </si>
-  <si>
-    <t>test/define_from_excel.xlsx</t>
-  </si>
-  <si>
-    <t>test.TbTestDesc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id,name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test.TbTestExcelBean</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestExcelBean1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test/test_excel_bean.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestDesc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test/test_desc.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartScene</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Server/StartScene.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Start</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Client/Start.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TbStartScene</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TbStart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组c=1 s=2 e=3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -266,7 +262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -275,6 +271,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -552,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -632,16 +634,16 @@
         <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -649,131 +651,132 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
+      <c r="H5" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="D8" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H13" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
